--- a/biology/Zoologie/Hydrophis_lamberti/Hydrophis_lamberti.xlsx
+++ b/biology/Zoologie/Hydrophis_lamberti/Hydrophis_lamberti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrophis lamberti ou Hydrophide de Lambert est une espèce de serpents marins de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrophis lamberti ou Hydrophide de Lambert est une espèce de serpents marins de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans l'océan Pacifique occidental dans les eaux des Philippines, du Viêt Nam, de la Thaïlande et de Singapour[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans l'océan Pacifique occidental dans les eaux des Philippines, du Viêt Nam, de la Thaïlande et de Singapour.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Hydrophis lamberti[2] mesure 860 mm dont 80 mm pour la queue, mais les plus grands individus atteignent 1 220 mm[1]. Cette espèce a la tête olive jaunâtre. Son dos est gris jaunâtre et présente entre 33 et 38 marques sombres en forme de losange. Sa face ventrale est blanc jaunâtre[2]. 
-C'est un serpent marin venimeux[1]. Il mange presque exclusivement des poissons-chats.
-Les individus pêchés au chalut y sont exploités pour leur peau et pour la viande qui est fumée puis envoyée au Japon[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Hydrophis lamberti mesure 860 mm dont 80 mm pour la queue, mais les plus grands individus atteignent 1 220 mm. Cette espèce a la tête olive jaunâtre. Son dos est gris jaunâtre et présente entre 33 et 38 marques sombres en forme de losange. Sa face ventrale est blanc jaunâtre. 
+C'est un serpent marin venimeux. Il mange presque exclusivement des poissons-chats.
+Les individus pêchés au chalut y sont exploités pour leur peau et pour la viande qui est fumée puis envoyée au Japon.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Smith, 1917 : Preliminary diagnoses of four new sea snakes. Journal of the Natural History Society of Siam, vol. 2, p. 340-342 (texte intégral).</t>
         </is>
